--- a/biology/Médecine/Voie_parentérale/Voie_parentérale.xlsx
+++ b/biology/Médecine/Voie_parentérale/Voie_parentérale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Voie_parent%C3%A9rale</t>
+          <t>Voie_parentérale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La voie parentérale (du grec para, « à côté », et enteros, « tube digestif ») est une voie d'administration de médicament au moyen d'une injection, à côté du tube digestif, ce qui l'oppose à la voie entérale[1]. Classiquement, ce mode d'administration utilise une aiguille hypodermique ou un cathéter mis en place par effraction plus ou moins profonde du revêtement externe du corps, c'est-à-dire la peau le plus souvent. L’action des médicaments pris par voie parentérale est générale (systémique).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La voie parentérale (du grec para, « à côté », et enteros, « tube digestif ») est une voie d'administration de médicament au moyen d'une injection, à côté du tube digestif, ce qui l'oppose à la voie entérale. Classiquement, ce mode d'administration utilise une aiguille hypodermique ou un cathéter mis en place par effraction plus ou moins profonde du revêtement externe du corps, c'est-à-dire la peau le plus souvent. L’action des médicaments pris par voie parentérale est générale (systémique).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Voie_parent%C3%A9rale</t>
+          <t>Voie_parentérale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Typologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les injections peuvent être :
 par voie générale : le principe actif est destiné à se diffuser dans tout l'organisme par sa circulation dans le sang :
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Voie_parent%C3%A9rale</t>
+          <t>Voie_parentérale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,7 +568,9 @@
           <t>Patients</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La voie parentérale constitue la principale méthode d'administration de médicament pour un patient incapable de prendre un traitement par voie simple à cause de trouble de conscience, trouble de déglutition, trouble du jugement avec risque élevé pour le patient ou son environnement.
 </t>
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Voie_parent%C3%A9rale</t>
+          <t>Voie_parentérale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Formes galéniques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les préparations injectables sont sous forme de produits :
 à utilisation directe : liquide injectable : des solutions, des suspensions ou des émulsions : le solvant peut être de l'eau pour préparations injectables, de l'huile végétale, des hydrocarbures (huile de vaseline), des alcools (éthanol), des polyols, de la lanoline, etc.
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Voie_parent%C3%A9rale</t>
+          <t>Voie_parentérale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,7 +637,9 @@
           <t>Conditionnement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les préparations injectables sont contenues dans des ampoules, des seringues, des flacons de tailles diverses allant jusqu'aux grands flacons à perfusion d'un litre, des seringues auto-injectables. Tous ces récipients sont hermétiques, inertes et stériles.
 Plus rarement, le médicament est injecté dans une chambre implantable.
@@ -633,7 +653,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Voie_parent%C3%A9rale</t>
+          <t>Voie_parentérale</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -651,9 +671,11 @@
           <t>Avantages et inconvénients</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>L’administration des médicaments par voie parentérale a les avantages et les inconvénients suivants [2],[3],[4] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L’administration des médicaments par voie parentérale a les avantages et les inconvénients suivants  :
 avantages :
 doses précises ;
 le principe actif n'est pas altéré par le passage gastrique ou intestinal ;
